--- a/biology/Zoologie/Hylodes_uai/Hylodes_uai.xlsx
+++ b/biology/Zoologie/Hylodes_uai/Hylodes_uai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes uai est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes uai est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Serra do Curral et de la Serra do Caraça dans l'État du Minas Gerais au Brésil. Elle est présente entre 850 et 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Serra do Curral et de la Serra do Caraça dans l'État du Minas Gerais au Brésil. Elle est présente entre 850 et 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 8 spécimens adultes mâles observés lors de la description originale mesurent entre 31,2 mm et 33,6 mm de longueur standard et les 2 spécimens adultes femelles observés lors de la description originale mesurent entre 36,3 mm et 38,2 mm de longueur standard[3]. Son dos est brun foncé avec des taches brunes et noires irrégulières. Sa gorge est gris foncé tacheté de gris. Son poitrail et son abdomen sont gris foncé tacheté de blanc grisâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 spécimens adultes mâles observés lors de la description originale mesurent entre 31,2 mm et 33,6 mm de longueur standard et les 2 spécimens adultes femelles observés lors de la description originale mesurent entre 36,3 mm et 38,2 mm de longueur standard. Son dos est brun foncé avec des taches brunes et noires irrégulières. Sa gorge est gris foncé tacheté de gris. Son poitrail et son abdomen sont gris foncé tacheté de blanc grisâtre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, uai, est un arrangement aléatoire de lettres qui est aussi une interjection commune aux habitants du Minas Gerais pour exprimer leur surprise ou leur étonnement[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, uai, est un arrangement aléatoire de lettres qui est aussi une interjection commune aux habitants du Minas Gerais pour exprimer leur surprise ou leur étonnement.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nascimento, Pombal &amp; Haddad, 2001 : A new frog of the genus Hylodes (Amphibia: Leptodactylidae) from Minas Gerais, Brazil. Journal of Zoology, London, vol. 254, p. 421-428 (texte intégral).</t>
         </is>
